--- a/lead_outreach.xlsx
+++ b/lead_outreach.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -556,7 +556,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Visual project management tool using boards and cards</t>
+          <t>Visual project management with boards and cards</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -584,6 +584,632 @@
           <t>Sync your calendar and allocate focused time slots to boost productivity.</t>
         </is>
       </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Zapier</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://zapier.com</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>200</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Automation</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Workflow automation for apps without code</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>sim_3</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Build and scale AI workflows and agents across 8,000+ apps with Zapier—the most connected AI orchestration platform. Trusted by 3 million+ businesses. </t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>⚡️From flicker to focus–see what AI can really do at ZapConnect 2025.Save your spot.</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>How Zapier can help you automate your work across teams</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Buffer</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://buffer.com</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>85</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Marketing</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Social media management and scheduling tool</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>sim_4</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Use Buffer to manage your social media so that you can create and share your content everywhere, consistently. Try our forever free plan or upgrade for more.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>By entering your email, you agree to receive emails from Buffer.</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>The most complete set of publishing integrations, ever</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Canva</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.canva.com</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>150</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Design</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Online design and publishing tools for everyone</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>sim_5</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Could not access website: https://www.canva.com</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Notion</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.notion.so</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>190</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Productivity</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>All-in-one workspace for notes, projects, and docs</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>San Francisco</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>sim_6</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>A tool that connects everyday work into one space. It gives you and your teams AI tools—search, writing, note-taking—inside an all-in-one, flexible workspace.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>There’s power in a single platform where you can do all your work. Notion is that single place.</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Uh-oh! It looks like your ad blocker is preventing the video from playing.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ClickUp</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.clickup.com</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>170</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Productivity</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Productivity platform for teams and task management</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>San Diego</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>sim_7</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Our mission is to make the world more productive. To do this, we built the everything app for work - Tasks, Docs, Goals, and Chat.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>One app to align, collaborate, and work. Designed to boost productivity and save teams a day every week.</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>One app to align, collaborate, and work. Designed to boost productivity and save teams a day every week.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>FreshBooks</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.freshbooks.com</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>110</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Cloud accounting software for small businesses</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Toronto</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>sim_8</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>The best cloud based small business accounting software. Send invoices, track time, manage receipts, expenses, and accept credit cards. Free 30-day trial.</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Customers and experts recommend FreshBooks</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Create professional invoices in minutes. Automatically add tracked time and expenses, calculate taxes, and customize your payment options.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Loom</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://www.loom.com</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>75</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Communication</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Video messaging for async workplace communication</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>San Francisco</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>sim_9</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Best free online screen recording tool with advanced video editing and video storage trusted by over 22 million people and easy sharing from Loom.com.</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Easily record and share AI-powered video messages with your teammates and customers to supercharge productivity</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Share flawless videos without lifting a finger. Loom AI auto-enhances your video and instantly transforms your script into a doc, message, or bug report. Try for free today.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Asana</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://asana.com</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>180</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Project Management</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Work management platform for teams and tasks</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>San Francisco</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>sim_10</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Work anytime, anywhere with Asana. Keep remote and distributed teams, and your entire organization, focused on their goals, projects, and tasks with Asana.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>See how your work connects to goals while working alongside AI that understands your business.</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Plan, track, and complete your campaigns all in one place.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Grammarly</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://www.grammarly.com</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>200</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>AI Writing</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>AI-powered writing assistant for clear communication</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>San Francisco</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>sim_11</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Grammarly’s free writing app will make sure your messages, documents, and social media posts are clear, mistake-free, and impactful.</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Miro</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://miro.com</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>160</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Collaboration</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Online collaborative whiteboard platform</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Amsterdam</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>sim_12</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Miro is the innovation workspace where teams manage projects, design products, and build the future together. Join 90M+ users from around the world.</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Registration is live for Miro’s biggest event of the year — Canvas 25! Sign up now to secure your spot for October 14</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Big ideas deserve room to grow. Our limitless canvas lets your team create and build together - from the first 'What if?' to the final 'Wow!' Add anything, plan everything, and watch collaboration come alive.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Calendly</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://calendly.com</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>90</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Scheduling</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Meeting scheduling tool for individuals and teams</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Atlanta</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>sim_13</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Calendly is the modern scheduling platform that makes âfinding timeâ a breeze. When connecting is easy, your teams can get more done.</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Gain insights on how meetings are changingâspanning productivity, engagement, and strategies for improvement across roles and industries.</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Join 20 million professionals who easily book meetings with the #1 scheduling tool.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Drift</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://www.drift.com</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>130</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Sales</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Conversational marketing and sales platform</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>sim_14</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Give your marketing, sales, and service teams what they need to have more meaningful conversations with buyers online, increase pipeline, and grow revenue. | Salesloft</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Connect with other users &amp; staff in the Salesloft community</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Salesloft-certified technology, service &amp; implementation partners</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Gusto</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://gusto.com</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>140</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>HR &amp; Payroll</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Cloud-based payroll, benefits, and HR software</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>San Francisco</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>sim_15</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Could not access website: https://gusto.com</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
